--- a/datos_intermedios/Data_Direcciones_COESTI.xlsx
+++ b/datos_intermedios/Data_Direcciones_COESTI.xlsx
@@ -607,14 +607,14 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Avenida 28 de Julio, La Victoria 15018, Perú</t>
+          <t>Av. 28 de Julio 2200, La Victoria 15018, Perú</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>-12.0620094</v>
+        <v>-12.0620294</v>
       </c>
       <c r="J4" t="n">
-        <v>-77.0186106</v>
+        <v>-77.0181504</v>
       </c>
     </row>
     <row r="5">
@@ -651,14 +651,14 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Km 27.5, North Station, Puente Piedra 15121, Perú</t>
+          <t>Leoncio Prado 780, Puente Piedra 15122, Perú</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>-11.8869804</v>
+        <v>-11.8392421</v>
       </c>
       <c r="J5" t="n">
-        <v>-77.067858</v>
+        <v>-77.1060588</v>
       </c>
     </row>
     <row r="6">
@@ -695,14 +695,14 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Km 27.5, North Station, Puente Piedra 15121, Perú</t>
+          <t>Leoncio Prado 780, Puente Piedra 15122, Perú</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>-11.8869804</v>
+        <v>-11.8392421</v>
       </c>
       <c r="J6" t="n">
-        <v>-77.067858</v>
+        <v>-77.1060588</v>
       </c>
     </row>
     <row r="7">
@@ -739,14 +739,14 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Av. Argentina 629, Cercado de Lima 15081, Perú</t>
+          <t>Av. Argentina 1815, Cercado de Lima 15081, Perú</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>-12.0458882</v>
+        <v>-12.0457357</v>
       </c>
       <c r="J7" t="n">
-        <v>-77.0653732</v>
+        <v>-77.065597</v>
       </c>
     </row>
     <row r="8">
@@ -783,14 +783,14 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Av. Guardia Civil Sur 341, Chorrillos 15056, Perú</t>
+          <t>Av. Guardia Civil 333, San Borja 15036, Perú</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>-12.1838598</v>
+        <v>-12.0917731</v>
       </c>
       <c r="J8" t="n">
-        <v>-77.00315569999999</v>
+        <v>-77.0085351</v>
       </c>
     </row>
     <row r="9">
@@ -831,10 +831,10 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>-12.093653</v>
+        <v>-12.0937159</v>
       </c>
       <c r="J9" t="n">
-        <v>-77.0572339</v>
+        <v>-77.05717</v>
       </c>
     </row>
     <row r="10">
@@ -875,10 +875,10 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>-12.093653</v>
+        <v>-12.0937159</v>
       </c>
       <c r="J10" t="n">
-        <v>-77.0572339</v>
+        <v>-77.05717</v>
       </c>
     </row>
     <row r="11">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>-12.093653</v>
+        <v>-12.0937159</v>
       </c>
       <c r="J11" t="n">
-        <v>-77.0572339</v>
+        <v>-77.05717</v>
       </c>
     </row>
     <row r="12">
@@ -963,10 +963,10 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>-12.093653</v>
+        <v>-12.0937159</v>
       </c>
       <c r="J12" t="n">
-        <v>-77.0572339</v>
+        <v>-77.05717</v>
       </c>
     </row>
     <row r="13">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Av García Alonso 195, Huaral 15201, Perú</t>
+          <t>Chancay, Huaral, Perú</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>-11.4930774</v>
+        <v>-11.5004287</v>
       </c>
       <c r="J13" t="n">
-        <v>-77.2021575</v>
+        <v>-77.2217763</v>
       </c>
     </row>
     <row r="14">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Av García Alonso 195, Huaral 15201, Perú</t>
+          <t>Chancay, Huaral, Perú</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>-11.4930774</v>
+        <v>-11.5004287</v>
       </c>
       <c r="J14" t="n">
-        <v>-77.2021575</v>
+        <v>-77.2217763</v>
       </c>
     </row>
     <row r="15">
@@ -1091,14 +1091,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Av García Alonso 195, Huaral 15201, Perú</t>
+          <t>Chancay, Huaral, Perú</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>-11.4930774</v>
+        <v>-11.5004287</v>
       </c>
       <c r="J15" t="n">
-        <v>-77.2021575</v>
+        <v>-77.2217763</v>
       </c>
     </row>
     <row r="16">
@@ -1135,14 +1135,14 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Av. La Paz 925, San Miguel 15087, Perú</t>
+          <t>Av. La Paz 915, San Miguel 15087, Perú</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>-12.0865207</v>
+        <v>-12.0864167</v>
       </c>
       <c r="J16" t="n">
-        <v>-77.09164679999999</v>
+        <v>-77.09163989999999</v>
       </c>
     </row>
     <row r="17">
@@ -1179,14 +1179,14 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Av. La Paz 925, San Miguel 15087, Perú</t>
+          <t>Av. La Paz 915, San Miguel 15087, Perú</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>-12.0865207</v>
+        <v>-12.0864167</v>
       </c>
       <c r="J17" t="n">
-        <v>-77.09164679999999</v>
+        <v>-77.09163989999999</v>
       </c>
     </row>
     <row r="18">
@@ -1223,14 +1223,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Av. La Paz 925, San Miguel 15087, Perú</t>
+          <t>Av. La Paz 915, San Miguel 15087, Perú</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>-12.0865207</v>
+        <v>-12.0864167</v>
       </c>
       <c r="J18" t="n">
-        <v>-77.09164679999999</v>
+        <v>-77.09163989999999</v>
       </c>
     </row>
     <row r="19">
@@ -1267,14 +1267,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Av. La Paz 925, San Miguel 15087, Perú</t>
+          <t>Av. La Paz 915, San Miguel 15087, Perú</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>-12.0865207</v>
+        <v>-12.0864167</v>
       </c>
       <c r="J19" t="n">
-        <v>-77.09164679999999</v>
+        <v>-77.09163989999999</v>
       </c>
     </row>
     <row r="20">
@@ -1311,14 +1311,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Av. El Sol, San Juan de Lurigancho 15419, Perú</t>
+          <t>Mz B 11, Ate 15023, Perú</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>-11.9849149</v>
+        <v>-12.0987578</v>
       </c>
       <c r="J20" t="n">
-        <v>-77.0071837</v>
+        <v>-76.9621104</v>
       </c>
     </row>
     <row r="21">
@@ -1355,14 +1355,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Av. El Sol, San Juan de Lurigancho 15419, Perú</t>
+          <t>Mz B 11, Ate 15023, Perú</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>-11.9849149</v>
+        <v>-12.0987578</v>
       </c>
       <c r="J21" t="n">
-        <v>-77.0071837</v>
+        <v>-76.9621104</v>
       </c>
     </row>
     <row r="22">
@@ -1399,14 +1399,14 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>5V8P+7HQ, Puente Piedra 07076, Perú</t>
+          <t>Av, Republica de Croacia Nro. 377, Puente Piedra 15118, Perú</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>-11.8342813</v>
+        <v>-11.8406205</v>
       </c>
       <c r="J22" t="n">
-        <v>-77.1135256</v>
+        <v>-77.1051763</v>
       </c>
     </row>
     <row r="23">
@@ -1443,14 +1443,14 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>5V8P+7HQ, Puente Piedra 07076, Perú</t>
+          <t>Av, Republica de Croacia Nro. 377, Puente Piedra 15118, Perú</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>-11.8342813</v>
+        <v>-11.8406205</v>
       </c>
       <c r="J23" t="n">
-        <v>-77.1135256</v>
+        <v>-77.1051763</v>
       </c>
     </row>
     <row r="24">
@@ -1487,14 +1487,14 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Av. Javier Prado Este 6310, La Molina 15024, Perú</t>
+          <t>Av. la Molina 580, La Molina 15023, Perú</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>-12.0699618</v>
+        <v>-12.0643646</v>
       </c>
       <c r="J24" t="n">
-        <v>-76.95113649999999</v>
+        <v>-76.96046799999999</v>
       </c>
     </row>
     <row r="25">
@@ -1531,14 +1531,14 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Av. Javier Prado Este 6310, La Molina 15024, Perú</t>
+          <t>Av. la Molina 580, La Molina 15023, Perú</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>-12.0699618</v>
+        <v>-12.0643646</v>
       </c>
       <c r="J25" t="n">
-        <v>-76.95113649999999</v>
+        <v>-76.96046799999999</v>
       </c>
     </row>
     <row r="26">
@@ -1751,14 +1751,14 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Carr. Central 912, Chaclacayo 15476, Perú</t>
+          <t>Av. Nicolás Ayllón 1340, San Luis 15019, Perú</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>-11.9904155</v>
+        <v>-12.0642312</v>
       </c>
       <c r="J30" t="n">
-        <v>-76.82055969999999</v>
+        <v>-76.9953797</v>
       </c>
     </row>
     <row r="31">
@@ -1795,14 +1795,14 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Carr. Central 912, Chaclacayo 15476, Perú</t>
+          <t>Av. Nicolás Ayllón 1340, San Luis 15019, Perú</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>-11.9904155</v>
+        <v>-12.0642312</v>
       </c>
       <c r="J31" t="n">
-        <v>-76.82055969999999</v>
+        <v>-76.9953797</v>
       </c>
     </row>
     <row r="32">
@@ -1839,14 +1839,14 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Carr. Central 912, Chaclacayo 15476, Perú</t>
+          <t>Av. Nicolás Ayllón 1340, San Luis 15019, Perú</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>-11.9904155</v>
+        <v>-12.0642312</v>
       </c>
       <c r="J32" t="n">
-        <v>-76.82055969999999</v>
+        <v>-76.9953797</v>
       </c>
     </row>
     <row r="33">
@@ -1883,14 +1883,14 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Av. del Ejército 965, Magdalena del Mar 15076, Perú</t>
+          <t>Av. del Ejército 965, Miraflores 15074, Perú</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>-12.1003754</v>
+        <v>-12.1126713</v>
       </c>
       <c r="J33" t="n">
-        <v>-77.06190289999999</v>
+        <v>-77.0491565</v>
       </c>
     </row>
     <row r="34">
@@ -1927,14 +1927,14 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Av. del Ejército 965, Magdalena del Mar 15076, Perú</t>
+          <t>Av. del Ejército 965, Miraflores 15074, Perú</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>-12.1003754</v>
+        <v>-12.1126713</v>
       </c>
       <c r="J34" t="n">
-        <v>-77.06190289999999</v>
+        <v>-77.0491565</v>
       </c>
     </row>
     <row r="35">
@@ -1971,14 +1971,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Av. del Ejército 965, Magdalena del Mar 15076, Perú</t>
+          <t>Av. del Ejército 965, Miraflores 15074, Perú</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>-12.1003754</v>
+        <v>-12.1126713</v>
       </c>
       <c r="J35" t="n">
-        <v>-77.06190289999999</v>
+        <v>-77.0491565</v>
       </c>
     </row>
     <row r="36">
@@ -2015,14 +2015,14 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Km, Antigua Panamericana Sur 30, Lurín 15823, Perú</t>
+          <t>Carr. Panamericana Sur, Lurín, Perú</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>-12.275635</v>
+        <v>-12.2773666</v>
       </c>
       <c r="J36" t="n">
-        <v>-76.88930860000001</v>
+        <v>-76.88789450000002</v>
       </c>
     </row>
     <row r="37">
@@ -2059,14 +2059,14 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Km, Antigua Panamericana Sur 30, Lurín 15823, Perú</t>
+          <t>Carr. Panamericana Sur, Lurín, Perú</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>-12.275635</v>
+        <v>-12.2773666</v>
       </c>
       <c r="J37" t="n">
-        <v>-76.88930860000001</v>
+        <v>-76.88789450000002</v>
       </c>
     </row>
     <row r="38">
@@ -2103,14 +2103,14 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>La Paz 2370, La Perla 07016, Perú</t>
+          <t>Av. La Paz 2326, La Perla 07016, Perú</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>-12.0758591</v>
+        <v>-12.075878</v>
       </c>
       <c r="J38" t="n">
-        <v>-77.11476180000001</v>
+        <v>-77.1145751</v>
       </c>
     </row>
     <row r="39">
@@ -2147,14 +2147,14 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>La Paz 2370, La Perla 07016, Perú</t>
+          <t>Av. La Paz 2326, La Perla 07016, Perú</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>-12.0758591</v>
+        <v>-12.075878</v>
       </c>
       <c r="J39" t="n">
-        <v>-77.11476180000001</v>
+        <v>-77.1145751</v>
       </c>
     </row>
     <row r="40">
@@ -2191,14 +2191,14 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>La Paz 2370, La Perla 07016, Perú</t>
+          <t>Av. La Paz 2326, La Perla 07016, Perú</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>-12.0758591</v>
+        <v>-12.075878</v>
       </c>
       <c r="J40" t="n">
-        <v>-77.11476180000001</v>
+        <v>-77.1145751</v>
       </c>
     </row>
     <row r="41">
@@ -2235,14 +2235,14 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>La Paz 2370, La Perla 07016, Perú</t>
+          <t>Av. La Paz 2326, La Perla 07016, Perú</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>-12.0758591</v>
+        <v>-12.075878</v>
       </c>
       <c r="J41" t="n">
-        <v>-77.11476180000001</v>
+        <v>-77.1145751</v>
       </c>
     </row>
     <row r="42">
@@ -2279,14 +2279,14 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Av. Quilca 531, San Martín de Porres 15106, Perú</t>
+          <t>Av. Quilca, Callao, Perú</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>-12.0308307</v>
+        <v>-12.0303368</v>
       </c>
       <c r="J42" t="n">
-        <v>-77.09509039999999</v>
+        <v>-77.0947156</v>
       </c>
     </row>
     <row r="43">
@@ -2323,14 +2323,14 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Av. Quilca 531, San Martín de Porres 15106, Perú</t>
+          <t>Av. Quilca, Callao, Perú</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>-12.0308307</v>
+        <v>-12.0303368</v>
       </c>
       <c r="J43" t="n">
-        <v>-77.09509039999999</v>
+        <v>-77.0947156</v>
       </c>
     </row>
     <row r="44">
@@ -2367,14 +2367,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Calle Lauriama, Barranca 15169, Perú</t>
+          <t>Av. Ramón Castilla 921, Barranca 15169, Perú</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>-10.7446386</v>
+        <v>-10.6781054</v>
       </c>
       <c r="J44" t="n">
-        <v>-77.7547489</v>
+        <v>-77.81748109999999</v>
       </c>
     </row>
     <row r="45">
@@ -2411,14 +2411,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Calle Lauriama, Barranca 15169, Perú</t>
+          <t>Av. Ramón Castilla 921, Barranca 15169, Perú</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>-10.7446386</v>
+        <v>-10.6781054</v>
       </c>
       <c r="J45" t="n">
-        <v>-77.7547489</v>
+        <v>-77.81748109999999</v>
       </c>
     </row>
     <row r="46">
@@ -2631,14 +2631,14 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>P4H3+35F, Lurín 15823, Perú</t>
+          <t>Carr. Panamericana Sur, Lurín, Perú</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>-12.2723002</v>
+        <v>-12.2773666</v>
       </c>
       <c r="J50" t="n">
-        <v>-76.89707890000001</v>
+        <v>-76.88789450000002</v>
       </c>
     </row>
     <row r="51">
@@ -2675,14 +2675,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>P4H3+35F, Lurín 15823, Perú</t>
+          <t>Carr. Panamericana Sur, Lurín, Perú</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>-12.2723002</v>
+        <v>-12.2773666</v>
       </c>
       <c r="J51" t="n">
-        <v>-76.89707890000001</v>
+        <v>-76.88789450000002</v>
       </c>
     </row>
     <row r="52">
@@ -2719,14 +2719,14 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>P4H3+35F, Lurín 15823, Perú</t>
+          <t>Carr. Panamericana Sur, Lurín, Perú</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>-12.2723002</v>
+        <v>-12.2773666</v>
       </c>
       <c r="J52" t="n">
-        <v>-76.89707890000001</v>
+        <v>-76.88789450000002</v>
       </c>
     </row>
     <row r="53">
@@ -2763,14 +2763,14 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Av. Panamericana Nte. 928, Barranca 15169, Perú</t>
+          <t>Au. Panamericana Nte., Barranca, Perú</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>-10.7429176</v>
+        <v>-10.7401938</v>
       </c>
       <c r="J53" t="n">
-        <v>-77.7671981</v>
+        <v>-77.7472119</v>
       </c>
     </row>
     <row r="54">
@@ -2807,14 +2807,14 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Av. Panamericana Nte. 928, Barranca 15169, Perú</t>
+          <t>Au. Panamericana Nte., Barranca, Perú</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>-10.7429176</v>
+        <v>-10.7401938</v>
       </c>
       <c r="J54" t="n">
-        <v>-77.7671981</v>
+        <v>-77.7472119</v>
       </c>
     </row>
     <row r="55">
@@ -2851,14 +2851,14 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Av. Panamericana Nte. 928, Barranca 15169, Perú</t>
+          <t>Au. Panamericana Nte., Barranca, Perú</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>-10.7429176</v>
+        <v>-10.7401938</v>
       </c>
       <c r="J55" t="n">
-        <v>-77.7671981</v>
+        <v>-77.7472119</v>
       </c>
     </row>
     <row r="56">
@@ -2895,14 +2895,14 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Av. San Luis 2605, San Borja 15037, Perú</t>
+          <t>Av. Nicolás Ayllón 1340, San Luis 15019, Perú</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>-12.1008262</v>
+        <v>-12.0642312</v>
       </c>
       <c r="J56" t="n">
-        <v>-76.9943809</v>
+        <v>-76.9953797</v>
       </c>
     </row>
     <row r="57">
@@ -2939,14 +2939,14 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Av. San Luis 2605, San Borja 15037, Perú</t>
+          <t>Av. Nicolás Ayllón 1340, San Luis 15019, Perú</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>-12.1008262</v>
+        <v>-12.0642312</v>
       </c>
       <c r="J57" t="n">
-        <v>-76.9943809</v>
+        <v>-76.9953797</v>
       </c>
     </row>
     <row r="58">
@@ -2983,14 +2983,14 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Av. San Luis 2605, San Borja 15037, Perú</t>
+          <t>Av. Nicolás Ayllón 1340, San Luis 15019, Perú</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>-12.1008262</v>
+        <v>-12.0642312</v>
       </c>
       <c r="J58" t="n">
-        <v>-76.9943809</v>
+        <v>-76.9953797</v>
       </c>
     </row>
     <row r="59">
@@ -3027,14 +3027,14 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Av. Prol. Huaylas 600, Lima 15067, Perú</t>
+          <t>Av. Caminos del Inca 110, Santiago de Surco 15038, Perú</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>-12.1904192</v>
+        <v>-12.1184455</v>
       </c>
       <c r="J59" t="n">
-        <v>-77.0063298</v>
+        <v>-76.9893015</v>
       </c>
     </row>
     <row r="60">
@@ -3071,11 +3071,11 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Avenida Tingo Maria Chacra Rios Sur 1711, Cercado de Lima 15083, Perú</t>
+          <t>Av. Tingo Maria 1194, Cercado de Lima 15083, Perú</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>-12.0595263</v>
+        <v>-12.0593514</v>
       </c>
       <c r="J60" t="n">
         <v>-77.05885239999999</v>
@@ -3115,11 +3115,11 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Avenida Tingo Maria Chacra Rios Sur 1711, Cercado de Lima 15083, Perú</t>
+          <t>Av. Tingo Maria 1194, Cercado de Lima 15083, Perú</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>-12.0595263</v>
+        <v>-12.0593514</v>
       </c>
       <c r="J61" t="n">
         <v>-77.05885239999999</v>
@@ -3159,14 +3159,14 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Av. Javier Prado Este 6310, La Molina 15024, Perú</t>
+          <t>Av. la Universidad 1275, Lima 15024, Perú</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>-12.0699618</v>
+        <v>-12.0784447</v>
       </c>
       <c r="J62" t="n">
-        <v>-76.95113649999999</v>
+        <v>-76.9482508</v>
       </c>
     </row>
     <row r="63">
@@ -3203,14 +3203,14 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>3291, Santiago de Surco 15038, Perú</t>
+          <t>Av. Primavera 1159, Santiago de Surco 15023, Perú</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>-12.1316437</v>
+        <v>-12.1100658</v>
       </c>
       <c r="J63" t="n">
-        <v>-76.9989654</v>
+        <v>-76.9772992</v>
       </c>
     </row>
     <row r="64">
@@ -3247,14 +3247,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>3291, Santiago de Surco 15038, Perú</t>
+          <t>Av. Primavera 1159, Santiago de Surco 15023, Perú</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>-12.1316437</v>
+        <v>-12.1100658</v>
       </c>
       <c r="J64" t="n">
-        <v>-76.9989654</v>
+        <v>-76.9772992</v>
       </c>
     </row>
     <row r="65">
@@ -3291,14 +3291,14 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>3291, Santiago de Surco 15038, Perú</t>
+          <t>Av. Primavera 1159, Santiago de Surco 15023, Perú</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>-12.1316437</v>
+        <v>-12.1100658</v>
       </c>
       <c r="J65" t="n">
-        <v>-76.9989654</v>
+        <v>-76.9772992</v>
       </c>
     </row>
     <row r="66">
@@ -3335,14 +3335,14 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>3291, Santiago de Surco 15038, Perú</t>
+          <t>Av. Primavera 1159, Santiago de Surco 15023, Perú</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>-12.1316437</v>
+        <v>-12.1100658</v>
       </c>
       <c r="J66" t="n">
-        <v>-76.9989654</v>
+        <v>-76.9772992</v>
       </c>
     </row>
     <row r="67">
@@ -3379,14 +3379,14 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Av. Malecón Checa, San Juan de Lurigancho 15401, Perú</t>
+          <t>Av. Próceres de la Independencia, San Juan de Lurigancho, Perú</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>-12.0316807</v>
+        <v>-12.0235254</v>
       </c>
       <c r="J67" t="n">
-        <v>-77.01188399999999</v>
+        <v>-77.00789229999999</v>
       </c>
     </row>
     <row r="68">
@@ -3423,14 +3423,14 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Av. Malecón Checa, San Juan de Lurigancho 15401, Perú</t>
+          <t>Av. Próceres de la Independencia, San Juan de Lurigancho, Perú</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>-12.0316807</v>
+        <v>-12.0235254</v>
       </c>
       <c r="J68" t="n">
-        <v>-77.01188399999999</v>
+        <v>-77.00789229999999</v>
       </c>
     </row>
     <row r="69">
@@ -3467,14 +3467,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Av. Malecón Checa, San Juan de Lurigancho 15401, Perú</t>
+          <t>Av. Próceres de la Independencia, San Juan de Lurigancho, Perú</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>-12.0316807</v>
+        <v>-12.0235254</v>
       </c>
       <c r="J69" t="n">
-        <v>-77.01188399999999</v>
+        <v>-77.00789229999999</v>
       </c>
     </row>
     <row r="70">
@@ -3511,14 +3511,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Av. Malecón Checa, San Juan de Lurigancho 15401, Perú</t>
+          <t>Av. Próceres de la Independencia, San Juan de Lurigancho, Perú</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>-12.0316807</v>
+        <v>-12.0235254</v>
       </c>
       <c r="J70" t="n">
-        <v>-77.01188399999999</v>
+        <v>-77.00789229999999</v>
       </c>
     </row>
     <row r="71">
@@ -3555,14 +3555,14 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>11 Esq. Alzamora, WX8P+HXQ, Av. Canadá, La Victoria 15034, Perú</t>
+          <t>Av. Isabel la Católica 77, La Victoria 15033, Perú</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>-12.0837085</v>
+        <v>-12.0703916</v>
       </c>
       <c r="J71" t="n">
-        <v>-77.0124855</v>
+        <v>-77.0306808</v>
       </c>
     </row>
     <row r="72">
@@ -3599,14 +3599,14 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>11 Esq. Alzamora, WX8P+HXQ, Av. Canadá, La Victoria 15034, Perú</t>
+          <t>Av. Isabel la Católica 77, La Victoria 15033, Perú</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>-12.0837085</v>
+        <v>-12.0703916</v>
       </c>
       <c r="J72" t="n">
-        <v>-77.0124855</v>
+        <v>-77.0306808</v>
       </c>
     </row>
     <row r="73">
@@ -3643,14 +3643,14 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>11 Esq. Alzamora, WX8P+HXQ, Av. Canadá, La Victoria 15034, Perú</t>
+          <t>Av. Isabel la Católica 77, La Victoria 15033, Perú</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>-12.0837085</v>
+        <v>-12.0703916</v>
       </c>
       <c r="J73" t="n">
-        <v>-77.0124855</v>
+        <v>-77.0306808</v>
       </c>
     </row>
     <row r="74">
@@ -3687,14 +3687,14 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Av. Nicolás Ayllón, Ate 15022, Perú</t>
+          <t>Residencial Portales de Pariachi Mz S1 lote 36, Ate 15476, Perú</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>-12.063253</v>
+        <v>-12.0026045</v>
       </c>
       <c r="J74" t="n">
-        <v>-76.9816316</v>
+        <v>-76.8413609</v>
       </c>
     </row>
     <row r="75">
@@ -3731,14 +3731,14 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Av. Tomas Valle 846, San Martín de Porres 15302, Perú</t>
+          <t>Av. Tomas Valle &amp;, Av. German Aguirre, San Martín de Porres 15302, Perú</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>-12.010343</v>
+        <v>-12.0109205</v>
       </c>
       <c r="J75" t="n">
-        <v>-77.0701808</v>
+        <v>-77.0705739</v>
       </c>
     </row>
     <row r="76">
@@ -3775,14 +3775,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Av. Tomas Valle 846, San Martín de Porres 15302, Perú</t>
+          <t>Av. Tomas Valle &amp;, Av. German Aguirre, San Martín de Porres 15302, Perú</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>-12.010343</v>
+        <v>-12.0109205</v>
       </c>
       <c r="J76" t="n">
-        <v>-77.0701808</v>
+        <v>-77.0705739</v>
       </c>
     </row>
     <row r="77">
@@ -3819,14 +3819,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Av. Tomas Valle 846, San Martín de Porres 15302, Perú</t>
+          <t>Av. Tomas Valle &amp;, Av. German Aguirre, San Martín de Porres 15302, Perú</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>-12.010343</v>
+        <v>-12.0109205</v>
       </c>
       <c r="J77" t="n">
-        <v>-77.0701808</v>
+        <v>-77.0705739</v>
       </c>
     </row>
     <row r="78">
@@ -3863,14 +3863,14 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Av. Tomas Valle 846, San Martín de Porres 15302, Perú</t>
+          <t>Av. Tomas Valle &amp;, Av. German Aguirre, San Martín de Porres 15302, Perú</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>-12.010343</v>
+        <v>-12.0109205</v>
       </c>
       <c r="J78" t="n">
-        <v>-77.0701808</v>
+        <v>-77.0705739</v>
       </c>
     </row>
     <row r="79">
@@ -3907,14 +3907,14 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Av. Nicolás Ayllón, Ate 15022, Perú</t>
+          <t>Av. Nicolás Ayllón 2570, Ate 15022, Perú</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>-12.063253</v>
+        <v>-12.0602011</v>
       </c>
       <c r="J79" t="n">
-        <v>-76.9816316</v>
+        <v>-76.9764462</v>
       </c>
     </row>
     <row r="80">
@@ -3951,14 +3951,14 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Av. Nicolás Ayllón, Ate 15022, Perú</t>
+          <t>Av. Nicolás Ayllón 2570, Ate 15022, Perú</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>-12.063253</v>
+        <v>-12.0602011</v>
       </c>
       <c r="J80" t="n">
-        <v>-76.9816316</v>
+        <v>-76.9764462</v>
       </c>
     </row>
     <row r="81">
@@ -3995,14 +3995,14 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Av. Nicolás Ayllón, Ate 15022, Perú</t>
+          <t>Av. Nicolás Ayllón 2570, Ate 15022, Perú</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>-12.063253</v>
+        <v>-12.0602011</v>
       </c>
       <c r="J81" t="n">
-        <v>-76.9816316</v>
+        <v>-76.9764462</v>
       </c>
     </row>
     <row r="82">
@@ -4039,14 +4039,14 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Av. San Luis 2480, San Borja 15037, Perú</t>
+          <t>Av. San Luis 2480, Lima 15037, Perú</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>-12.0983311</v>
+        <v>-12.0982478</v>
       </c>
       <c r="J82" t="n">
-        <v>-76.99523929999999</v>
+        <v>-76.995301</v>
       </c>
     </row>
     <row r="83">
@@ -4083,14 +4083,14 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Av. San Luis 2605, San Borja 15037, Perú</t>
+          <t>Av. José Galvez Barrenechea, San Borja, Perú</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>-12.1008262</v>
+        <v>-12.1053567</v>
       </c>
       <c r="J83" t="n">
-        <v>-76.9943809</v>
+        <v>-77.0109592</v>
       </c>
     </row>
     <row r="84">
@@ -4127,14 +4127,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Av. San Luis 2605, San Borja 15037, Perú</t>
+          <t>Av. José Galvez Barrenechea, San Borja, Perú</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>-12.1008262</v>
+        <v>-12.1053567</v>
       </c>
       <c r="J84" t="n">
-        <v>-76.9943809</v>
+        <v>-77.0109592</v>
       </c>
     </row>
     <row r="85">
@@ -4171,14 +4171,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Av. San Luis 2605, San Borja 15037, Perú</t>
+          <t>Av. José Galvez Barrenechea, San Borja, Perú</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>-12.1008262</v>
+        <v>-12.1053567</v>
       </c>
       <c r="J85" t="n">
-        <v>-76.9943809</v>
+        <v>-77.0109592</v>
       </c>
     </row>
     <row r="86">
@@ -4215,14 +4215,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>WWHP+649, Pueblo Libre 15084, Perú</t>
+          <t>Av. Simón Bolivar 1020, Pueblo Libre 15084, Perú</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>-12.0719728</v>
+        <v>-12.0719187</v>
       </c>
       <c r="J86" t="n">
-        <v>-77.06463119999999</v>
+        <v>-77.06464249999999</v>
       </c>
     </row>
     <row r="87">
@@ -4259,14 +4259,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>WWHP+649, Pueblo Libre 15084, Perú</t>
+          <t>Av. Simón Bolivar 1020, Pueblo Libre 15084, Perú</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>-12.0719728</v>
+        <v>-12.0719187</v>
       </c>
       <c r="J87" t="n">
-        <v>-77.06463119999999</v>
+        <v>-77.06464249999999</v>
       </c>
     </row>
     <row r="88">
@@ -4303,14 +4303,14 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>WWHP+649, Pueblo Libre 15084, Perú</t>
+          <t>Av. Simón Bolivar 1020, Pueblo Libre 15084, Perú</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>-12.0719728</v>
+        <v>-12.0719187</v>
       </c>
       <c r="J88" t="n">
-        <v>-77.06463119999999</v>
+        <v>-77.06464249999999</v>
       </c>
     </row>
     <row r="89">
@@ -4347,14 +4347,14 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>WWHP+649, Pueblo Libre 15084, Perú</t>
+          <t>Av. Simón Bolivar 1020, Pueblo Libre 15084, Perú</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>-12.0719728</v>
+        <v>-12.0719187</v>
       </c>
       <c r="J89" t="n">
-        <v>-77.06463119999999</v>
+        <v>-77.06464249999999</v>
       </c>
     </row>
     <row r="90">
@@ -4391,14 +4391,14 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>3291, Santiago de Surco 15038, Perú</t>
+          <t>Av Santiago de Surco &amp; Av Tomás Marsano, Santiago de Surco 15049, Perú</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>-12.1316437</v>
+        <v>-12.1419008</v>
       </c>
       <c r="J90" t="n">
-        <v>-76.9989654</v>
+        <v>-76.9917878</v>
       </c>
     </row>
     <row r="91">
@@ -4435,14 +4435,14 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Av. del Ejército 412, Miraflores 15074, Perú</t>
+          <t>Av. P.º de la República, Perú</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>-12.1166049</v>
+        <v>-12.117715</v>
       </c>
       <c r="J91" t="n">
-        <v>-77.04496069999999</v>
+        <v>-77.0263858</v>
       </c>
     </row>
     <row r="92">
@@ -4479,14 +4479,14 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Av. del Ejército 412, Miraflores 15074, Perú</t>
+          <t>Av. P.º de la República, Perú</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>-12.1166049</v>
+        <v>-12.117715</v>
       </c>
       <c r="J92" t="n">
-        <v>-77.04496069999999</v>
+        <v>-77.0263858</v>
       </c>
     </row>
     <row r="93">
@@ -4523,14 +4523,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Av. del Ejército 412, Miraflores 15074, Perú</t>
+          <t>Av. P.º de la República, Perú</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>-12.1166049</v>
+        <v>-12.117715</v>
       </c>
       <c r="J93" t="n">
-        <v>-77.04496069999999</v>
+        <v>-77.0263858</v>
       </c>
     </row>
     <row r="94">
@@ -4567,14 +4567,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Jirón Salaverry 480, Magdalena del Mar 15086, Perú</t>
+          <t>Viva, Jirón Salaverry 480, Magdalena del Mar 15086, Perú</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>-12.0941926</v>
+        <v>-12.0942775</v>
       </c>
       <c r="J94" t="n">
-        <v>-77.0748693</v>
+        <v>-77.0746896</v>
       </c>
     </row>
     <row r="95">
@@ -4611,14 +4611,14 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Jirón Salaverry 480, Magdalena del Mar 15086, Perú</t>
+          <t>Viva, Jirón Salaverry 480, Magdalena del Mar 15086, Perú</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>-12.0941926</v>
+        <v>-12.0942775</v>
       </c>
       <c r="J95" t="n">
-        <v>-77.0748693</v>
+        <v>-77.0746896</v>
       </c>
     </row>
     <row r="96">
@@ -4655,14 +4655,14 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Jirón Salaverry 480, Magdalena del Mar 15086, Perú</t>
+          <t>Viva, Jirón Salaverry 480, Magdalena del Mar 15086, Perú</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>-12.0941926</v>
+        <v>-12.0942775</v>
       </c>
       <c r="J96" t="n">
-        <v>-77.0748693</v>
+        <v>-77.0746896</v>
       </c>
     </row>
     <row r="97">
@@ -4699,14 +4699,14 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>R24P+P5X, Villa EL Salvador 15842, Perú</t>
+          <t>Mateo Pumacahua, Villa EL Salvador 15828, Perú</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>-12.1931419</v>
+        <v>-12.1896874</v>
       </c>
       <c r="J97" t="n">
-        <v>-76.9645017</v>
+        <v>-76.9536269</v>
       </c>
     </row>
     <row r="98">
@@ -4743,14 +4743,14 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>R24P+P5X, Villa EL Salvador 15842, Perú</t>
+          <t>Mateo Pumacahua, Villa EL Salvador 15828, Perú</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>-12.1931419</v>
+        <v>-12.1896874</v>
       </c>
       <c r="J98" t="n">
-        <v>-76.9645017</v>
+        <v>-76.9536269</v>
       </c>
     </row>
     <row r="99">
@@ -4787,14 +4787,14 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Carr., 1S, Lima 15846, Perú</t>
+          <t>Carr. Panamericana Sur, Punta Hermosa, Perú</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>-12.316093</v>
+        <v>-12.3222048</v>
       </c>
       <c r="J99" t="n">
-        <v>-76.8318062</v>
+        <v>-76.8274691</v>
       </c>
     </row>
     <row r="100">
@@ -4831,14 +4831,14 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Av. Angamos 2398, Surquillo 15038, Perú</t>
+          <t>Av. Angamos 1401, Surquillo 15048, Perú</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>-12.1123697</v>
+        <v>-12.1127153</v>
       </c>
       <c r="J100" t="n">
-        <v>-77.0058167</v>
+        <v>-77.01698189999999</v>
       </c>
     </row>
     <row r="101">
@@ -4875,14 +4875,14 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Av. Angamos 2398, Surquillo 15038, Perú</t>
+          <t>Av. Angamos 1401, Surquillo 15048, Perú</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>-12.1123697</v>
+        <v>-12.1127153</v>
       </c>
       <c r="J101" t="n">
-        <v>-77.0058167</v>
+        <v>-77.01698189999999</v>
       </c>
     </row>
     <row r="102">
@@ -4919,14 +4919,14 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>3291, Santiago de Surco 15038, Perú</t>
+          <t>Av. Jorge Chavez 877, Santiago de Surco 15049, Perú</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>-12.1316437</v>
+        <v>-12.1469638</v>
       </c>
       <c r="J102" t="n">
-        <v>-76.9989654</v>
+        <v>-77.01159419999999</v>
       </c>
     </row>
     <row r="103">
@@ -4963,14 +4963,14 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>3291, Santiago de Surco 15038, Perú</t>
+          <t>Av. Jorge Chavez 877, Santiago de Surco 15049, Perú</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>-12.1316437</v>
+        <v>-12.1469638</v>
       </c>
       <c r="J103" t="n">
-        <v>-76.9989654</v>
+        <v>-77.01159419999999</v>
       </c>
     </row>
     <row r="104">
@@ -5007,14 +5007,14 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>3291, Santiago de Surco 15038, Perú</t>
+          <t>Av. Jorge Chavez 877, Santiago de Surco 15049, Perú</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>-12.1316437</v>
+        <v>-12.1469638</v>
       </c>
       <c r="J104" t="n">
-        <v>-76.9989654</v>
+        <v>-77.01159419999999</v>
       </c>
     </row>
     <row r="105">
@@ -5051,14 +5051,14 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Av. Argentina 629, Cercado de Lima 15081, Perú</t>
+          <t>Alberto Secada, Callao 07021, Perú</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>-12.0458882</v>
+        <v>-12.0635482</v>
       </c>
       <c r="J105" t="n">
-        <v>-77.0653732</v>
+        <v>-77.14534689999999</v>
       </c>
     </row>
     <row r="106">
@@ -5095,14 +5095,14 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>1S, Chilca 15871, Perú</t>
+          <t>Carr. Panamericana Sur, Perú</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>-12.5086231</v>
+        <v>-12.4636388</v>
       </c>
       <c r="J106" t="n">
-        <v>-76.73759459999999</v>
+        <v>-76.75172979999999</v>
       </c>
     </row>
     <row r="107">
@@ -5139,14 +5139,14 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>1S, Chilca 15871, Perú</t>
+          <t>Carr. Panamericana Sur, Perú</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>-12.5086231</v>
+        <v>-12.4636388</v>
       </c>
       <c r="J107" t="n">
-        <v>-76.73759459999999</v>
+        <v>-76.75172979999999</v>
       </c>
     </row>
     <row r="108">
@@ -5183,14 +5183,14 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>1S, Chilca 15871, Perú</t>
+          <t>Carr. Panamericana Sur, Perú</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>-12.5086231</v>
+        <v>-12.4636388</v>
       </c>
       <c r="J108" t="n">
-        <v>-76.73759459999999</v>
+        <v>-76.75172979999999</v>
       </c>
     </row>
     <row r="109">
@@ -5231,10 +5231,10 @@
         </is>
       </c>
       <c r="I109" t="n">
-        <v>-12.10333</v>
+        <v>-12.103425</v>
       </c>
       <c r="J109" t="n">
-        <v>-77.058218</v>
+        <v>-77.058311</v>
       </c>
     </row>
     <row r="110">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>-12.10333</v>
+        <v>-12.103425</v>
       </c>
       <c r="J110" t="n">
-        <v>-77.058218</v>
+        <v>-77.058311</v>
       </c>
     </row>
     <row r="111">
@@ -5319,10 +5319,10 @@
         </is>
       </c>
       <c r="I111" t="n">
-        <v>-12.10333</v>
+        <v>-12.103425</v>
       </c>
       <c r="J111" t="n">
-        <v>-77.058218</v>
+        <v>-77.058311</v>
       </c>
     </row>
   </sheetData>
